--- a/Book1 code/chapter 3/Bootstrap_result.xlsx
+++ b/Book1 code/chapter 3/Bootstrap_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuqiuhua/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470B560-6387-0148-8D46-2074E94EFAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A18A2A-E465-AB4E-82E7-3E87FA2189A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{72BE36CA-99CE-7846-8247-6900352BC7F3}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
         <v>0.1285</v>
       </c>
       <c r="B2">
-        <v>5.9799999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C2">
         <v>0.16470000000000001</v>
@@ -449,7 +449,7 @@
         <v>0.1321</v>
       </c>
       <c r="B3">
-        <v>5.28E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="C3">
         <v>0.1429</v>
@@ -466,7 +466,7 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="B4">
-        <v>5.3199999999999997E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="C4">
         <v>0.1298</v>
@@ -483,7 +483,7 @@
         <v>0.12959999999999999</v>
       </c>
       <c r="B5">
-        <v>5.5899999999999998E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="C5">
         <v>0.11360000000000001</v>
@@ -500,7 +500,7 @@
         <v>0.1171</v>
       </c>
       <c r="B6">
-        <v>5.3199999999999997E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="C6">
         <v>9.9900000000000003E-2</v>
@@ -517,7 +517,7 @@
         <v>9.4700000000000006E-2</v>
       </c>
       <c r="B7">
-        <v>4.7600000000000003E-2</v>
+        <v>5.11E-2</v>
       </c>
       <c r="C7">
         <v>7.5999999999999998E-2</v>
@@ -534,7 +534,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="B8">
-        <v>5.3400000000000003E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="C8">
         <v>7.1900000000000006E-2</v>
@@ -551,7 +551,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="B9">
-        <v>5.0099999999999999E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="C9">
         <v>5.7500000000000002E-2</v>
@@ -568,7 +568,7 @@
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="B10">
-        <v>5.0599999999999999E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="C10">
         <v>5.4100000000000002E-2</v>
@@ -585,7 +585,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="B11">
-        <v>5.1700000000000003E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="C11">
         <v>5.2499999999999998E-2</v>
@@ -602,7 +602,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="B12">
-        <v>5.1400000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C12">
         <v>5.2499999999999998E-2</v>
@@ -619,7 +619,7 @@
         <v>5.74E-2</v>
       </c>
       <c r="B13">
-        <v>4.5100000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C13">
         <v>4.9799999999999997E-2</v>
@@ -636,7 +636,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="B14">
-        <v>5.3800000000000001E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="C14">
         <v>5.11E-2</v>
@@ -653,7 +653,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="B15">
-        <v>4.9200000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C15">
         <v>4.7800000000000002E-2</v>
@@ -670,7 +670,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>4.9599999999999998E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="C16">
         <v>5.1400000000000001E-2</v>
